--- a/Data/Demand Model/Mineral_Intensity.xlsx
+++ b/Data/Demand Model/Mineral_Intensity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Pablo\Educacion\Aprendizaje Continuo\Codigos utiles\R\Proyectos R\Lithium-Supply\Data\Demand Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F432D9-66FD-4D9F-8C19-9F39759367C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BDFCBC-7065-42C0-9C33-6F198D41475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{3B472435-57B0-4E18-8E2C-2EA77018F632}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Notes" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BatPac!$A$1:$C$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BatPac!$A$1:$C$206</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="62">
   <si>
     <t>LFP</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Default configurations used</t>
+  </si>
+  <si>
+    <t>SS NCA</t>
+  </si>
+  <si>
+    <t>Workbook "Battery_chemistry_stochoimetry" has all calculations</t>
   </si>
 </sst>
 </file>
@@ -229,16 +235,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,14 +272,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14971A9-44D0-4518-9090-F0BD7475C020}">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +622,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.12350885453734753</v>
       </c>
     </row>
@@ -634,7 +633,7 @@
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.2128544646478584</v>
       </c>
     </row>
@@ -645,7 +644,7 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.11254392968456289</v>
       </c>
     </row>
@@ -656,7 +655,7 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.2128544646478584</v>
       </c>
     </row>
@@ -667,7 +666,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.11024667839029383</v>
       </c>
     </row>
@@ -678,7 +677,7 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.18944424935966034</v>
       </c>
     </row>
@@ -700,7 +699,7 @@
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.18944424935966034</v>
       </c>
     </row>
@@ -711,7 +710,7 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>9.9801988409743969E-2</v>
       </c>
     </row>
@@ -722,7 +721,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.18944424935966034</v>
       </c>
     </row>
@@ -744,7 +743,7 @@
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.18944424935966034</v>
       </c>
     </row>
@@ -755,7 +754,7 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>9.4505661261836613E-2</v>
       </c>
     </row>
@@ -766,7 +765,7 @@
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0.18944424935966034</v>
       </c>
     </row>
@@ -777,7 +776,7 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>0.10748616100949565</v>
       </c>
     </row>
@@ -786,10 +785,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.1485261717850416E-2</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.1650656125169381</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -797,10 +796,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9.1485261717850416E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,10 +807,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.10149494589636225</v>
+        <v>42</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,10 +818,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.32188140317545805</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.10149494589636225</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,21 +829,21 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>0.10050705408801931</v>
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.32188140317545805</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.34009381540262917</v>
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0.10050705408801931</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,9 +851,9 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.34009381540262917</v>
       </c>
     </row>
@@ -863,10 +862,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.46485266810446424</v>
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.34009381540262917</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,9 +873,9 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.46485266810446424</v>
       </c>
     </row>
@@ -885,10 +884,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.54626053114176831</v>
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.46485266810446424</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,9 +895,9 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.54626053114176831</v>
       </c>
     </row>
@@ -907,10 +906,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>0.57831857104647022</v>
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.54626053114176831</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,7 +917,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>0.57831857104647022</v>
@@ -929,10 +928,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.65837450779214091</v>
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0.57831857104647022</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,9 +939,9 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
         <v>0.65837450779214091</v>
       </c>
     </row>
@@ -951,10 +950,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>0.73804668328459244</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.65837450779214091</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>0.73804668328459244</v>
@@ -973,10 +972,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.73953980672121999</v>
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.73804668328459244</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,9 +983,9 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="2">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1">
         <v>0.73953980672121999</v>
       </c>
     </row>
@@ -995,10 +994,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.70999498313827303</v>
+        <v>31</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.73953980672121999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.70999498313827303</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,10 +1016,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.66382364337201216</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,9 +1027,9 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1039,9 +1038,9 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1050,32 +1049,32 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41">
-        <v>0.35472351189244228</v>
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.34136822588446492</v>
+        <v>18</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.34136822588446492</v>
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>0.35472351189244228</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1083,10 +1082,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.18663783158845904</v>
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.34136822588446492</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,10 +1093,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.18663783158845904</v>
+        <v>26</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.34136822588446492</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,10 +1104,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.18276916539024815</v>
+        <v>16</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.18663783158845904</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,10 +1115,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.18276916539024815</v>
+        <v>27</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.18663783158845904</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,10 +1126,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48">
-        <v>8.292652357050026E-2</v>
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.18276916539024815</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,10 +1137,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49">
-        <v>8.292652357050026E-2</v>
+        <v>28</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.18276916539024815</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2">
-        <v>8.260519873997374E-2</v>
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>8.292652357050026E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1160,10 +1159,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="2">
-        <v>8.260519873997374E-2</v>
+        <v>29</v>
+      </c>
+      <c r="C51">
+        <v>8.292652357050026E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1171,10 +1170,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52">
-        <v>3.3294935530352794E-2</v>
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8.260519873997374E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1182,10 +1181,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53">
-        <v>3.3294935530352794E-2</v>
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>8.260519873997374E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1193,10 +1192,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1.9534500896503555E-2</v>
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>3.3294935530352794E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1204,10 +1203,10 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1.9534500896503555E-2</v>
+        <v>32</v>
+      </c>
+      <c r="C55">
+        <v>3.3294935530352794E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1215,10 +1214,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.13362290609459127</v>
+        <v>17</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.9534500896503555E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,10 +1225,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.9534500896503555E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1237,10 +1236,10 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.13362290609459127</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1248,10 +1247,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.12499712112480743</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1259,9 +1258,9 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1270,43 +1269,43 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61">
+        <v>42</v>
+      </c>
+      <c r="C61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0.31825505396389792</v>
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0.31825505396389792</v>
+        <v>18</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0.2610015900425065</v>
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1314,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="2">
-        <v>0.2610015900425065</v>
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.31825505396389792</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1325,10 +1324,10 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0.17039433135143786</v>
+        <v>26</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.31825505396389792</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1336,10 +1335,10 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0.17039433135143786</v>
+        <v>16</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.2610015900425065</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1347,10 +1346,10 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68">
-        <v>0.15462356032456417</v>
+        <v>27</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.2610015900425065</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1358,10 +1357,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69">
-        <v>0.15462356032456417</v>
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.17039433135143786</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1369,10 +1368,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="2">
-        <v>7.7012211416496806E-2</v>
+        <v>28</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.17039433135143786</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1380,10 +1379,10 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="2">
-        <v>7.7012211416496806E-2</v>
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <v>0.15462356032456417</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1391,10 +1390,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C72">
-        <v>3.1040620363780462E-2</v>
+        <v>0.15462356032456417</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1402,10 +1401,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73">
-        <v>3.1040620363780462E-2</v>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7.7012211416496806E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1413,10 +1412,10 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1.8211869663225945E-2</v>
+        <v>30</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7.7012211416496806E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1424,10 +1423,10 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1.8211869663225945E-2</v>
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>3.1040620363780462E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1435,10 +1434,10 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C76">
+        <v>3.1040620363780462E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1446,10 +1445,10 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1.8211869663225945E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1457,10 +1456,10 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0.32200251852949441</v>
+        <v>31</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.8211869663225945E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1468,10 +1467,10 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1.341289542708306</v>
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1479,10 +1478,10 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="2">
-        <v>2.107818172725421</v>
+        <v>60</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1490,54 +1489,54 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
-      </c>
-      <c r="C81">
-        <v>0.99583596031531818</v>
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0.909586926621616</v>
+        <v>42</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.32200251852949441</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1.341289542708306</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="2">
-        <v>0.90669395441991996</v>
+        <v>18</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2.107818172725421</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="2">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>0.99583596031531818</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1545,10 +1544,10 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="2">
-        <v>0.90960051674001319</v>
+        <v>3</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.909586926621616</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1556,9 +1555,9 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" s="2">
+        <v>26</v>
+      </c>
+      <c r="C87" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1567,10 +1566,10 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88">
-        <v>0.92410896206964555</v>
+        <v>16</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.90669395441991996</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1578,9 +1577,9 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="2">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1589,10 +1588,10 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="2">
-        <v>0.92410896206964555</v>
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.90960051674001319</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1600,9 +1599,9 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="2">
+        <v>28</v>
+      </c>
+      <c r="C91" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1611,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92">
         <v>0.92410896206964555</v>
@@ -1622,9 +1621,9 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="2">
+        <v>29</v>
+      </c>
+      <c r="C93" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1633,10 +1632,10 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0.94411240451696254</v>
+        <v>5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.92410896206964555</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1644,9 +1643,9 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="2">
+        <v>30</v>
+      </c>
+      <c r="C95" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1655,10 +1654,10 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="2">
-        <v>0.9304310798048806</v>
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>0.92410896206964555</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1666,10 +1665,10 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="2">
-        <v>0.98462695392004806</v>
+        <v>32</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1677,10 +1676,10 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2">
-        <v>0.84624184945058423</v>
+        <v>17</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.94411240451696254</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1688,9 +1687,9 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="2">
+        <v>31</v>
+      </c>
+      <c r="C99" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1699,65 +1698,65 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100">
-        <v>0.84624184945058423</v>
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.9304310798048806</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2">
-        <v>0.59497617875035491</v>
+        <v>60</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.9304310798048806</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="2">
-        <v>0.59497617875035491</v>
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.98462695392004806</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0.57498279276200925</v>
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.84624184945058423</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
-      </c>
-      <c r="C104" s="2">
-        <v>0.57498279276200925</v>
+        <v>18</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="2">
-        <v>0.57189011139885271</v>
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>0.84624184945058423</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1765,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="2">
-        <v>0.57189011139885271</v>
+        <v>3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.59497617875035491</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -1776,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107">
-        <v>0.55501253419738494</v>
+        <v>26</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.59497617875035491</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -1787,10 +1786,10 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
-      </c>
-      <c r="C108">
-        <v>0.55501253419738494</v>
+        <v>16</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.57498279276200925</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -1798,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="2">
-        <v>0.55501253419738494</v>
+        <v>27</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.57498279276200925</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -1809,10 +1808,10 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="2">
-        <v>0.55501253419738494</v>
+        <v>4</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.57189011139885271</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -1820,10 +1819,10 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111">
-        <v>0.57867860601187082</v>
+        <v>28</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.57189011139885271</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -1831,10 +1830,10 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C112">
-        <v>0.57867860601187082</v>
+        <v>0.55501253419738494</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1842,10 +1841,10 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="2">
-        <v>0.5480935387976984</v>
+        <v>29</v>
+      </c>
+      <c r="C113">
+        <v>0.55501253419738494</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -1853,10 +1852,10 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
-      </c>
-      <c r="C114" s="2">
-        <v>0.5480935387976984</v>
+        <v>5</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.55501253419738494</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1864,10 +1863,10 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" s="2">
-        <v>0.56293127178373448</v>
+        <v>30</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.55501253419738494</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1875,10 +1874,10 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="2">
-        <v>0.72460281058567555</v>
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>0.57867860601187082</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -1886,10 +1885,10 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="2">
-        <v>0.68976796903425919</v>
+        <v>32</v>
+      </c>
+      <c r="C117">
+        <v>0.57867860601187082</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1897,10 +1896,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" s="2">
-        <v>1.2355941558363768</v>
+        <v>17</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.5480935387976984</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1908,76 +1907,76 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119">
-        <v>0.68976796903425919</v>
+        <v>31</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.5480935387976984</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="2">
-        <v>0.41313800625452174</v>
+        <v>2</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.56293127178373448</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
-      </c>
-      <c r="C121" s="2">
-        <v>0.41313800625452174</v>
+        <v>60</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.56293127178373448</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" s="2">
-        <v>0.3918553123211263</v>
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.72460281058567555</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
-      </c>
-      <c r="C123" s="2">
-        <v>0.3918553123211263</v>
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.68976796903425919</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="2">
-        <v>0.38838216513235024</v>
+        <v>18</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.2355941558363768</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
-      </c>
-      <c r="C125" s="2">
-        <v>0.38838216513235024</v>
+        <v>24</v>
+      </c>
+      <c r="C125">
+        <v>0.68976796903425919</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -1985,10 +1984,10 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126">
-        <v>0.36951139005120265</v>
+        <v>3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.41313800625452174</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -1996,10 +1995,10 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
-      </c>
-      <c r="C127">
-        <v>0.36951139005120265</v>
+        <v>26</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.41313800625452174</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2007,10 +2006,10 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="2">
-        <v>0.36951139005120265</v>
+        <v>16</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.3918553123211263</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2018,10 +2017,10 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
-      </c>
-      <c r="C129" s="2">
-        <v>0.36951139005120265</v>
+        <v>27</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.3918553123211263</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -2029,10 +2028,10 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130">
-        <v>0.36951139005120265</v>
+        <v>4</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.38838216513235024</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -2040,10 +2039,10 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
-      </c>
-      <c r="C131">
-        <v>0.36951139005120265</v>
+        <v>28</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.38838216513235024</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2051,10 +2050,10 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="2">
-        <v>0.36094066665892766</v>
+        <v>22</v>
+      </c>
+      <c r="C132">
+        <v>0.36951139005120265</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -2062,10 +2061,10 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
-      </c>
-      <c r="C133" s="2">
-        <v>0.36094066665892766</v>
+        <v>29</v>
+      </c>
+      <c r="C133">
+        <v>0.36951139005120265</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2073,10 +2072,10 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0.37760615505433981</v>
+        <v>5</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.36951139005120265</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2084,10 +2083,10 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" s="2">
-        <v>0.55106817416551224</v>
+        <v>30</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.36951139005120265</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2095,10 +2094,10 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0.51908142796905032</v>
+        <v>23</v>
+      </c>
+      <c r="C136">
+        <v>0.36951139005120265</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2106,10 +2105,10 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0.18040752824129977</v>
+        <v>32</v>
+      </c>
+      <c r="C137">
+        <v>0.36951139005120265</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2117,87 +2116,87 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138">
-        <v>0.51908142796905032</v>
+        <v>17</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.36094066665892766</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0.97256653113918967</v>
+        <v>31</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.36094066665892766</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
-      </c>
-      <c r="C140" s="2">
-        <v>0.97256653113918967</v>
+        <v>2</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.37760615505433981</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
-      </c>
-      <c r="C141" s="2">
-        <v>0.95653132023005516</v>
+        <v>60</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.37760615505433981</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
-      </c>
-      <c r="C142" s="2">
-        <v>0.95653132023005516</v>
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.55106817416551224</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="2">
-        <v>0.95433710505717206</v>
+        <v>1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.51908142796905032</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
-      </c>
-      <c r="C144" s="2">
-        <v>0.95433710505717206</v>
+        <v>18</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.18040752824129977</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C145">
-        <v>0.94224070632218504</v>
+        <v>0.51908142796905032</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2205,10 +2204,10 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
-      </c>
-      <c r="C146">
-        <v>0.94224070632218504</v>
+        <v>3</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.97256653113918967</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2216,10 +2215,10 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="2">
-        <v>0.94224070632218504</v>
+        <v>26</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.97256653113918967</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -2227,10 +2226,10 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0.94224070632218504</v>
+        <v>16</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.95653132023005516</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2238,10 +2237,10 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
-      </c>
-      <c r="C149">
-        <v>0.94224070632218504</v>
+        <v>27</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.95653132023005516</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2249,10 +2248,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
-      </c>
-      <c r="C150">
-        <v>0.94224070632218504</v>
+        <v>4</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.95433710505717206</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -2260,10 +2259,10 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="2">
-        <v>0.93859797599403971</v>
+        <v>28</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.95433710505717206</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -2271,10 +2270,10 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
-      </c>
-      <c r="C152" s="2">
-        <v>0.93859797599403971</v>
+        <v>22</v>
+      </c>
+      <c r="C152">
+        <v>0.94224070632218504</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -2282,10 +2281,10 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
-      </c>
-      <c r="C153" s="2">
-        <v>0.94910557779586113</v>
+        <v>29</v>
+      </c>
+      <c r="C153">
+        <v>0.94224070632218504</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2293,10 +2292,10 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" s="2">
-        <v>1.0773872995285019</v>
+        <v>5</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.94224070632218504</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2304,10 +2303,10 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" s="2">
-        <v>1.0406805924516742</v>
+        <v>30</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.94224070632218504</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2315,10 +2314,10 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
-      </c>
-      <c r="C156" s="2">
-        <v>1.3045305828970397</v>
+        <v>23</v>
+      </c>
+      <c r="C156">
+        <v>0.94224070632218504</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2326,98 +2325,98 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C157">
-        <v>1.0406805924516742</v>
+        <v>0.94224070632218504</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="2">
-        <v>0.35844368109873176</v>
+        <v>17</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.93859797599403971</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>26</v>
-      </c>
-      <c r="C159" s="2">
-        <v>0.35844368109873176</v>
+        <v>31</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.93859797599403971</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" s="2">
-        <v>0.35035144896604281</v>
+        <v>2</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.94910557779586113</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>27</v>
-      </c>
-      <c r="C161" s="2">
-        <v>0.35035144896604281</v>
+        <v>60</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0.94910557779586113</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="2">
-        <v>0.34922511486496305</v>
+        <v>0</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1.0773872995285019</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>28</v>
-      </c>
-      <c r="C163" s="2">
-        <v>0.34922511486496305</v>
+        <v>1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1.0406805924516742</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164">
-        <v>0.34299753067970795</v>
+        <v>18</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1.3045305828970397</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C165">
-        <v>0.34299753067970795</v>
+        <v>1.0406805924516742</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -2425,10 +2424,10 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="2">
-        <v>0.34299753067970795</v>
+        <v>3</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.35844368109873176</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2436,10 +2435,10 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
-      </c>
-      <c r="C167" s="2">
-        <v>0.34299753067970795</v>
+        <v>26</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.35844368109873176</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2447,10 +2446,10 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
-      </c>
-      <c r="C168">
-        <v>0.34299753067970795</v>
+        <v>16</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.35035144896604281</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2458,10 +2457,10 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
-      </c>
-      <c r="C169">
-        <v>0.34299753067970795</v>
+        <v>27</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0.35035144896604281</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2469,10 +2468,10 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="2">
-        <v>0.34101017222573737</v>
+        <v>4</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0.34922511486496305</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2480,10 +2479,10 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
-      </c>
-      <c r="C171" s="2">
-        <v>0.34101017222573737</v>
+        <v>28</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0.34922511486496305</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2491,10 +2490,10 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
-      </c>
-      <c r="C172" s="2">
-        <v>0.34645572810481684</v>
+        <v>22</v>
+      </c>
+      <c r="C172">
+        <v>0.34299753067970795</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2502,10 +2501,10 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" s="2">
-        <v>0.41071849600216381</v>
+        <v>29</v>
+      </c>
+      <c r="C173">
+        <v>0.34299753067970795</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -2513,10 +2512,10 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="2">
-        <v>0.39276963564934558</v>
+        <v>5</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0.34299753067970795</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2524,10 +2523,10 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" s="2">
-        <v>0.52202391745442611</v>
+        <v>30</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0.34299753067970795</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -2535,246 +2534,344 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176">
+        <v>0.34299753067970795</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177">
+        <v>0.34299753067970795</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0.34101017222573737</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0.34101017222573737</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0.34645572810481684</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>60</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0.34645572810481684</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0.41071849600216381</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0.39276963564934558</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0.52202391745442611</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" t="s">
         <v>24</v>
       </c>
-      <c r="C176">
+      <c r="C185">
         <v>0.39276963564934558</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>21</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B186" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="C186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>21</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B187" t="s">
         <v>26</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C187" s="1">
         <v>7.830155660747945E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>21</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B188" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="C188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>21</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B189" t="s">
         <v>27</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C189" s="1">
         <v>7.830155660747945E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>21</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B190" t="s">
         <v>4</v>
       </c>
-      <c r="C181" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="C190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>21</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B191" t="s">
         <v>28</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C191" s="1">
         <v>7.7075116651408829E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>21</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B192" t="s">
         <v>22</v>
       </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>21</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B193" t="s">
         <v>29</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C193" s="1">
         <v>7.7075116651408829E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>21</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B194" t="s">
         <v>5</v>
       </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="C194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>21</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B195" t="s">
         <v>30</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C195" s="1">
         <v>7.7075116651408829E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>21</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B196" t="s">
         <v>23</v>
       </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>21</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B197" t="s">
         <v>32</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C197" s="1">
         <v>7.7075116651408829E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>21</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" s="1">
+        <v>7.7075116651408829E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" t="s">
+        <v>60</v>
+      </c>
+      <c r="C201" s="1">
+        <v>7.8752171663258985E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0.39158074976459034</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" t="s">
         <v>42</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C203" s="1">
         <v>0.12323990834468224</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>21</v>
       </c>
-      <c r="B190" t="s">
-        <v>17</v>
-      </c>
-      <c r="C190" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>21</v>
       </c>
-      <c r="B191" t="s">
-        <v>31</v>
-      </c>
-      <c r="C191" s="2">
-        <v>7.7075116651408829E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="B205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>21</v>
       </c>
-      <c r="B192" t="s">
-        <v>2</v>
-      </c>
-      <c r="C192" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B193" t="s">
-        <v>0</v>
-      </c>
-      <c r="C193" s="2">
-        <v>0.39158074976459034</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1</v>
-      </c>
-      <c r="C194" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B195" t="s">
-        <v>18</v>
-      </c>
-      <c r="C195" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="B206" t="s">
         <v>24</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C197" s="2"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C200" s="2"/>
+      <c r="C206">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C191" xr:uid="{D14971A9-44D0-4518-9090-F0BD7475C020}"/>
+  <autoFilter ref="A1:C206" xr:uid="{D14971A9-44D0-4518-9090-F0BD7475C020}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -2782,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF9921A-2AF2-427D-BDE8-40DF7EC99149}">
-  <dimension ref="B1:D21"/>
+  <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2794,7 +2891,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2839,7 +2936,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2889,7 +2986,7 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2913,7 +3010,7 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
@@ -2934,6 +3031,11 @@
       </c>
       <c r="C21" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Demand Model/Mineral_Intensity.xlsx
+++ b/Data/Demand Model/Mineral_Intensity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Pablo\Educacion\Aprendizaje Continuo\Codigos utiles\R\Proyectos R\Lithium-Supply\Data\Demand Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BDFCBC-7065-42C0-9C33-6F198D41475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE8DDD-C1FF-4CA9-8CC4-851C5F17ED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{3B472435-57B0-4E18-8E2C-2EA77018F632}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{3B472435-57B0-4E18-8E2C-2EA77018F632}"/>
   </bookViews>
   <sheets>
     <sheet name="BatPac" sheetId="3" r:id="rId1"/>
@@ -595,16 +595,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14971A9-44D0-4518-9090-F0BD7475C020}">
   <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0.12350885453734753</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -637,7 +637,7 @@
         <v>0.2128544646478584</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0.11254392968456289</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -659,7 +659,7 @@
         <v>0.2128544646478584</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -670,7 +670,7 @@
         <v>0.11024667839029383</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -681,7 +681,7 @@
         <v>0.18944424935966034</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -692,7 +692,7 @@
         <v>0.10018040251526816</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -703,7 +703,7 @@
         <v>0.18944424935966034</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -714,7 +714,7 @@
         <v>9.9801988409743969E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0.18944424935966034</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0.10054643982603502</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -747,7 +747,7 @@
         <v>0.18944424935966034</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -758,7 +758,7 @@
         <v>9.4505661261836613E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0.18944424935966034</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -780,7 +780,7 @@
         <v>0.10748616100949565</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -791,7 +791,7 @@
         <v>0.1650656125169381</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -802,7 +802,7 @@
         <v>9.1485261717850416E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0.10149494589636225</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -835,7 +835,7 @@
         <v>0.32188140317545805</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -846,7 +846,7 @@
         <v>0.10050705408801931</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -857,7 +857,7 @@
         <v>0.34009381540262917</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0.34009381540262917</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -879,7 +879,7 @@
         <v>0.46485266810446424</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0.46485266810446424</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0.54626053114176831</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -912,7 +912,7 @@
         <v>0.54626053114176831</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0.57831857104647022</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0.57831857104647022</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0.65837450779214091</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0.65837450779214091</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0.73804668328459244</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0.73804668328459244</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0.73953980672121999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0.73953980672121999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0.70999498313827303</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0.66382364337201216</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>0.35472351189244228</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0.34136822588446492</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>0.34136822588446492</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0.18663783158845904</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0.18663783158845904</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0.18276916539024815</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>0.18276916539024815</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>8.292652357050026E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>8.292652357050026E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>8.260519873997374E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>8.260519873997374E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>3.3294935530352794E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>3.3294935530352794E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>1.9534500896503555E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1.9534500896503555E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0.13362290609459127</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>0.12499712112480743</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0.31825505396389792</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0.31825505396389792</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0.2610015900425065</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0.2610015900425065</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>0.17039433135143786</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0.17039433135143786</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0.15462356032456417</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0.15462356032456417</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>7.7012211416496806E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>7.7012211416496806E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>3.1040620363780462E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>3.1040620363780462E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>1.8211869663225945E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1.8211869663225945E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0.32200251852949441</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>1.341289542708306</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>2.107818172725421</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>0.99583596031531818</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0.909586926621616</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0.90669395441991996</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0.90960051674001319</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0.92410896206964555</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0.92410896206964555</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0.92410896206964555</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0.94411240451696254</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0.9304310798048806</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -1712,10 +1712,10 @@
         <v>60</v>
       </c>
       <c r="C101" s="1">
-        <v>0.9304310798048806</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.98462695392004806</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>0.84624184945058423</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>0.84624184945058423</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0.59497617875035491</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0.59497617875035491</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0.57498279276200925</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0.57498279276200925</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>0.57189011139885271</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0.57189011139885271</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0.55501253419738494</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0.55501253419738494</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0.55501253419738494</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0.55501253419738494</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0.57867860601187082</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>0.57867860601187082</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>0.5480935387976984</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>0.5480935387976984</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0.56293127178373448</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0.56293127178373448</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0.72460281058567555</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>0.68976796903425919</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>1.2355941558363768</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>0.68976796903425919</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0.41313800625452174</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>0.41313800625452174</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.3918553123211263</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0.3918553123211263</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0.38838216513235024</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0.38838216513235024</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0.36951139005120265</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0.36951139005120265</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>0.36951139005120265</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0.36951139005120265</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>0.36951139005120265</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0.36951139005120265</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0.36094066665892766</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0.36094066665892766</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0.37760615505433981</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>0.37760615505433981</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0.55106817416551224</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0.51908142796905032</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>0.18040752824129977</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>0.51908142796905032</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0.97256653113918967</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>0.97256653113918967</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0.95653132023005516</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0.95653132023005516</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>0.95433710505717206</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.95433710505717206</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>0.94224070632218504</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0.94224070632218504</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0.94224070632218504</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0.94224070632218504</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>0.94224070632218504</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>0.94224070632218504</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0.93859797599403971</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0.93859797599403971</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0.94910557779586113</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>0.94910557779586113</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>1.0773872995285019</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>1.0406805924516742</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>1.3045305828970397</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>1.0406805924516742</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0.35844368109873176</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>0.35844368109873176</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0.35035144896604281</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0.35035144896604281</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>0.34922511486496305</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>0.34922511486496305</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0.34299753067970795</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>0.34299753067970795</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>0.34299753067970795</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>0.34299753067970795</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>0.34299753067970795</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0.34299753067970795</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>0.34101017222573737</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0.34101017222573737</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>0.34645572810481684</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>0.34645572810481684</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0.41071849600216381</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>0.39276963564934558</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>0.52202391745442611</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0.39276963564934558</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>7.830155660747945E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>7.830155660747945E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>7.7075116651408829E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>7.7075116651408829E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>7.7075116651408829E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>7.7075116651408829E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>7.7075116651408829E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>7.8752171663258985E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0.39158074976459034</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0.12323990834468224</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -2885,17 +2885,17 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>44</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>55</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>58</v>
       </c>
@@ -2935,12 +2935,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -2980,17 +2980,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>49</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>58</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>61</v>
       </c>
